--- a/biology/Zoologie/Apion_trifolii/Apion_trifolii.xlsx
+++ b/biology/Zoologie/Apion_trifolii/Apion_trifolii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Apion trifolii (le petit apion du trèfle) est une espèce d'insectes coléoptères curculionoïdes de la famille des Apionidae (ou des Brentidae selon les classifications), originaire d'Europe.
 Cet insecte phytophage est un ravageur des légumineuses, principalement du trèfle. Les dégâts sont dus aux larves qui vivent dans les inflorescences de trèfle (en particulier Trifolium pratense) et détruisent les ovaires et les graines en formation.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Protapion trifolii (Linnaeus, 1768)
 Apion aestivum (Germar, 1817)</t>
